--- a/medicine/Enfance/Francis_Finn/Francis_Finn.xlsx
+++ b/medicine/Enfance/Francis_Finn/Francis_Finn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis James Finn, né le 4 octobre 1859 à Saint-Louis, Missouri (États-Unis) et décédé le 4 novembre 1928 à Cincinnati, Ohio (États-Unis) est un prêtre jésuite américain, qui fut écrivain pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du maire (sheriff) de la ville de Saint-Louis, il étudie à l’université de cette ville. Entré au noviciat des jésuites le 24 mars 1879, il est ensuite envoyé à Woodstock College pour les études de philosophie et de théologie. Cependant, pour des raisons de santé, ses études sont plusieurs fois interrompues. 
 Le 29 juin 1891, Finn est ordonné prêtre. 1891 est également l’année de son premier roman pour la jeunesse, Tom Playfair, qui est un succès immédiat. Il y travaillait depuis quelques années déjà. Le thème et son héros lui viennent de ses années d’enseignement passées à St Mary’s Collège (Kansas), en 1881-1883.   
@@ -544,7 +558,9 @@
           <t>Écrivain pour la jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Finn est l'auteur de vingt sept romans, dont le premier, publié en 1891, reste le plus célèbre et populaire : Tom Playfair. Le héros est l’idéal d’un jeune adolescent, catholique et américain.  
 Tom Playfair est traduit dans toutes les grandes langues européennes. Le ‘Catholic Who is who’ américain de 1911 présente Francis Finn comme 'universellement reconnu comme le principal auteur catholique de fiction pour la jeunesse'. 
@@ -578,9 +594,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tom Playfair (1891)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom Playfair (1891)
 Harry Dee; or, Working It Out (1892)
 Percy Wynn; or, Making a Boy of Him (1893)
 Claude Lightfoot; or, How the Problem Was Solved (1893)
@@ -603,7 +621,7 @@
 Lord Bountiful (1923)
 Sunshine and Freckles (1925)
 Candles' Beams (1926)
-Father Finn, S.J.: The Story of His Life Told by Himself for His Friends Young and Old (edited and with an introduction by Daniel S. Lord, S.J.) (1929) [1]</t>
+Father Finn, S.J.: The Story of His Life Told by Himself for His Friends Young and Old (edited and with an introduction by Daniel S. Lord, S.J.) (1929) </t>
         </is>
       </c>
     </row>
